--- a/data.xlsx
+++ b/data.xlsx
@@ -619,7 +619,11 @@
           <t>Firefox</t>
         </is>
       </c>
-      <c r="F6" s="16" t="n"/>
+      <c r="F6" s="16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G6" s="17" t="n"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="13">
@@ -636,7 +640,11 @@
           <t>https://nhanvan.vn/</t>
         </is>
       </c>
-      <c r="F7" s="16" t="n"/>
+      <c r="F7" s="16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G7" s="17" t="n"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="13">
